--- a/data/trans_dic/P2B_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares</t>
+          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,17 +602,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,12 +622,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,4</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 82,76</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 26,33</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 65,71</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 29,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 48,59</t>
+          <t>0,62; 3,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 48,44</t>
+          <t>0,83; 3,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 37,05</t>
+          <t>0,32; 1,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 35,06</t>
+          <t>0,45; 1,94</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 29,01</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 38,17</t>
+          <t>0,4; 3,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 39,96</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 35,27</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 25,14</t>
+          <t>0,21; 1,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 32,69</t>
+          <t>0,51; 2,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 21,19</t>
+          <t>0,33; 1,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 50,97</t>
+          <t>0,37; 2,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 37,44</t>
+          <t>0,87; 2,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 31,43</t>
+          <t>0,86; 3,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 25,84</t>
+          <t>0,74; 1,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 39,03</t>
+          <t>0,84; 2,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 1,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 1,49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 1,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 2,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 1,39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 1,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11008</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13100</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12749</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15221</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12440</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20624</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12440</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20624</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4408; 25191</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8350; 37973</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4374; 24905</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8633; 37409</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10737</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2438</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5126</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6572</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15863</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12692</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2838; 26890</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11701</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17868</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2050; 18841</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7541; 34808</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15601</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14563</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31346</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25163</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46946</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39726</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6885; 31686</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5446; 30496</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18151; 52823</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12077; 42978</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31108; 72203</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24166; 65501</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22168</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28302</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>46224</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>50913</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68391</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79215</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11551; 39301</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15420; 51216</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28410; 68834</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>31046; 78862</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>49429; 97832</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>55572; 110820</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>